--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.17</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.33</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,215 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -715,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5604</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -753,36 +503,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -817,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -857,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1251</t>
+          <t>0.6758</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -885,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.4189</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -923,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.41</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0371</t>
+          <t>0.0557</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -961,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -999,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1037,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1090,12 +882,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>91.69</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1105,6 +897,404 @@
       </c>
       <c r="H8" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1499,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1349,26 +1539,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6352</t>
+          <t>0.1251</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1377,36 +1567,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3685</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1415,36 +1605,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>96.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1166</t>
+          <t>0.0371</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1453,36 +1643,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1099</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1491,36 +1681,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0757</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1529,36 +1719,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1567,112 +1757,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,7 +1821,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1737,36 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>91.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6758</t>
+          <t>0.5604</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1775,226 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4189</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0557</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2008,128 +1932,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.2</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.33</v>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>浙商中华预期高股息C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6758</t>
+          <t>0.3111</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>浙商中华预期高股息A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4189</t>
+          <t>0.1831</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>97.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0557</t>
+          <t>0.0759</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>96.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -801,26 +818,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -905,6 +922,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1302,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1472,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1794,7 +2133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01313-华润水泥控股.xlsx
+++ b/数据整理/stocks/港股/01313-华润水泥控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.61</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.2</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商中华预期高股息C</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3111</t>
+          <t>0.1347</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商中华预期高股息A</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>98.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1831</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -732,188 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.26</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0759</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159726</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏恒生中国内地企业高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -978,36 +843,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>浙商中华预期高股息C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6758</t>
+          <t>0.3111</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1016,36 +881,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>浙商中华预期高股息A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4189</t>
+          <t>0.1831</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1054,36 +919,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>97.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0557</t>
+          <t>0.0759</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1092,36 +957,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>96.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1140,26 +1005,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1168,36 +1033,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1206,36 +1071,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1244,6 +1109,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
